--- a/Teilelistexlsx.xlsx
+++ b/Teilelistexlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Documents\GitHub\callForHelp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75303661-6178-4F95-9176-AFE3CD5C2536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EE929E-F18C-4ADC-A4B9-A880590A6387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{143D6FF0-2072-4F77-BF3E-E2C2F466FEBA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Art. ID</t>
   </si>
@@ -50,40 +50,98 @@
     <t>Website</t>
   </si>
   <si>
-    <t>Preis</t>
-  </si>
-  <si>
     <t>https://www.ebay.de/itm/TP4056-USB-C-Neu-Li-Ion-Lademodul-5V-1A-18650-Laderegler-Charger-LIPO-Board-/392521487361</t>
   </si>
   <si>
     <t>TP4056</t>
   </si>
   <si>
-    <t>TP4056 USB C Neu Li-Ion Lademodul 5V 1A 18650 Laderegler Charger LIPO Board</t>
-  </si>
-  <si>
-    <t>ebay</t>
-  </si>
-  <si>
-    <t>https://de.banggood.com/LILYGO-TTGO-T-Call-V1_3-ESP32-Wireless-Module-GPRS-Antenna-SIM-Card-SIM800L-Board-p-1527048.html?gmcCountry=DE&amp;currency=EUR&amp;createTmp=1&amp;utm_source=googleshopping&amp;utm_medium=cpc_bgcs&amp;utm_content=frank&amp;utm_campaign=frank-ssc-deg-brand-newcustom-1031&amp;ad_id=393281309923&amp;cur_warehouse=UK</t>
-  </si>
-  <si>
-    <t>LILYGO® TTGO T-Call V1.3 ESP32 Funkmodul GPRS Antenne SIM-Karte SIM800L Karte</t>
-  </si>
-  <si>
     <t>Menge</t>
   </si>
   <si>
-    <t>banggood</t>
-  </si>
-  <si>
-    <t>Labor?</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Wechselschalter oder Taster</t>
+    <t>AZDelivery 5 x NodeMCU V2 WiFi Lua Amica ESP8266 ESP-12F Development Board mit CP2102 Unverlötet version eBook inklusive</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>5x Bouclier de Batterie</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/Aussel-St%C3%BCck-Position-Kippschalter-Arduino/dp/B077D9FRGL/ref=sr_1_21?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Schalter&amp;qid=1586185940&amp;refinements=p_76%3A419122031&amp;rnid=419121031&amp;rps=1&amp;sr=8-21</t>
+  </si>
+  <si>
+    <t>Ebay</t>
+  </si>
+  <si>
+    <r>
+      <t>TP4056</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>USB-C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Lademodul</t>
+    </r>
+  </si>
+  <si>
+    <t>Aussel 10 Stück AC 125 V 6A ON-ON 3 Pins 2 Position Mini Kippschalter für Arduino</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/CHINLY-WS2812B-Adressierbare-Schwarz-K%C3%BChlk%C3%B6rper/dp/B01N0GIHFG/ref=sr_1_21?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=ws2812&amp;qid=1586186823&amp;sr=8-21&amp;th=1</t>
+  </si>
+  <si>
+    <t>CHINLY 100 stücke WS2812B Adressierbare LED Pixel licht 5050 RGB SMD auf Kühlkörper PCB Board 1-led LED Modul Pixel Licht 5 V DC (WS2812B Weiß PCB)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/AZDelivery-D1-Mini-ESP8266-12E-kompatibel/dp/B01N9RXGHY/ref=sr_1_3?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=d1+mini&amp;qid=1586187042&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>Anmerkungen</t>
+  </si>
+  <si>
+    <t>Zur Not vorhanden</t>
+  </si>
+  <si>
+    <t>Einzel-Preis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summe </t>
+  </si>
+  <si>
+    <t>https://www.akkuteile.de/lithium-ionen-akkus/18650/samsung/sanyo-ncr18650ga-3-6v-3-7v-3500mah-pluspol-flach_100676_1277</t>
+  </si>
+  <si>
+    <t>Akku Teile</t>
+  </si>
+  <si>
+    <t>Sanyo/Panasonic NCR18650GA 3,6V - 3,7V 3500mAh (Pluspol flach)</t>
   </si>
 </sst>
 </file>
@@ -92,9 +150,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,16 +175,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -155,75 +247,64 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -232,26 +313,38 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -568,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E317669C-0758-4774-A45B-AEFA3B55E9BE}">
-  <dimension ref="A2:G26"/>
+  <dimension ref="A2:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,127 +672,218 @@
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="18">
+        <v>6.79</v>
+      </c>
+      <c r="G3" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H3" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="18">
+        <f>F3*G3</f>
+        <v>33.950000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="E4" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="12">
+        <f>5*1.409</f>
+        <v>7.0449999999999999</v>
+      </c>
+      <c r="G4" s="13">
+        <v>5</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="30">
+        <f t="shared" ref="I4:I8" si="0">F4*G4</f>
+        <v>35.225000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6">
+        <v>8.99</v>
+      </c>
+      <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="18">
+        <f t="shared" si="0"/>
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="14">
-        <v>1.49</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="E6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="12">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="G6" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1527048</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="15">
-        <v>15.29</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="20"/>
+      <c r="I6" s="30">
+        <f t="shared" si="0"/>
+        <v>16.989999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>100676</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="8">
+        <v>4.05</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="18">
+        <f t="shared" si="0"/>
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="25"/>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13" s="1">
+        <f>SUM(I3:I8)</f>
+        <v>115.405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
@@ -730,14 +914,26 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F26" s="1"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{44E34334-5FB5-48EE-8E41-78B871FC0766}"/>
-    <hyperlink ref="E4" r:id="rId2" display="https://de.banggood.com/LILYGO-TTGO-T-Call-V1_3-ESP32-Wireless-Module-GPRS-Antenna-SIM-Card-SIM800L-Board-p-1527048.html?gmcCountry=DE&amp;currency=EUR&amp;createTmp=1&amp;utm_source=googleshopping&amp;utm_medium=cpc_bgcs&amp;utm_content=frank&amp;utm_campaign=frank-ssc-deg-brand-newcustom-1031&amp;ad_id=393281309923&amp;cur_warehouse=UK" xr:uid="{2BDD3B1E-C85F-484D-8DED-8F544DBD2A4A}"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{0F61A332-D206-48E3-9900-47586EE2B341}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{49E5BC93-5F93-4A64-956D-0A654E73DEAC}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{D15B6248-C8E8-4787-BC42-84DDA3EDA92B}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{6A5839D8-0EBB-407B-873D-D42C0798BECE}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{8DC7145A-4F46-45B6-B465-1FEE527E024D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>